--- a/GradeDistributionsDB/Spring2013/Output/Spring2013 GE.xlsx
+++ b/GradeDistributionsDB/Spring2013/Output/Spring2013 GE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATMO-201</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>1.09%</t>
   </si>
   <si>
+    <t>1.08%</t>
+  </si>
+  <si>
     <t>EPIFANIO C</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>0.66%</t>
   </si>
   <si>
+    <t>1.30%</t>
+  </si>
+  <si>
     <t>ATMO-202</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>3.02%</t>
   </si>
   <si>
+    <t>4.78%</t>
+  </si>
+  <si>
     <t>ATMO-203</t>
   </si>
   <si>
@@ -115,6 +127,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>10.00%</t>
+  </si>
+  <si>
     <t>ATMO-321</t>
   </si>
   <si>
@@ -145,15 +160,15 @@
     <t>11.76%</t>
   </si>
   <si>
+    <t>2.86%</t>
+  </si>
+  <si>
     <t>ATMO-435</t>
   </si>
   <si>
     <t>PANETTA R</t>
   </si>
   <si>
-    <t>10.00%</t>
-  </si>
-  <si>
     <t>33.33%</t>
   </si>
   <si>
@@ -175,6 +190,9 @@
     <t>5.56%</t>
   </si>
   <si>
+    <t>5.26%</t>
+  </si>
+  <si>
     <t>ATMO-455</t>
   </si>
   <si>
@@ -187,6 +205,9 @@
     <t>45.45%</t>
   </si>
   <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>ATMO-456</t>
   </si>
   <si>
@@ -295,6 +316,9 @@
     <t>3.57%</t>
   </si>
   <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>EWERS M</t>
   </si>
   <si>
@@ -313,6 +337,9 @@
     <t>5.91%</t>
   </si>
   <si>
+    <t>3.79%</t>
+  </si>
+  <si>
     <t>GEOG-202</t>
   </si>
   <si>
@@ -334,6 +361,9 @@
     <t>0.84%</t>
   </si>
   <si>
+    <t>2.47%</t>
+  </si>
+  <si>
     <t>PATZEWITSCH W</t>
   </si>
   <si>
@@ -352,6 +382,9 @@
     <t>2.76%</t>
   </si>
   <si>
+    <t>1.93%</t>
+  </si>
+  <si>
     <t>JOSLIN A</t>
   </si>
   <si>
@@ -361,9 +394,6 @@
     <t>37.50%</t>
   </si>
   <si>
-    <t>8.33%</t>
-  </si>
-  <si>
     <t>4.17%</t>
   </si>
   <si>
@@ -379,6 +409,69 @@
     <t>52.00%</t>
   </si>
   <si>
+    <t>ROARK E</t>
+  </si>
+  <si>
+    <t>18.29%</t>
+  </si>
+  <si>
+    <t>40.24%</t>
+  </si>
+  <si>
+    <t>20.73%</t>
+  </si>
+  <si>
+    <t>12.20%</t>
+  </si>
+  <si>
+    <t>8.54%</t>
+  </si>
+  <si>
+    <t>5.75%</t>
+  </si>
+  <si>
+    <t>LAFON C</t>
+  </si>
+  <si>
+    <t>14.47%</t>
+  </si>
+  <si>
+    <t>50.94%</t>
+  </si>
+  <si>
+    <t>27.67%</t>
+  </si>
+  <si>
+    <t>5.03%</t>
+  </si>
+  <si>
+    <t>1.89%</t>
+  </si>
+  <si>
+    <t>3.64%</t>
+  </si>
+  <si>
+    <t>CAIRNS D</t>
+  </si>
+  <si>
+    <t>15.89%</t>
+  </si>
+  <si>
+    <t>28.04%</t>
+  </si>
+  <si>
+    <t>42.06%</t>
+  </si>
+  <si>
+    <t>8.41%</t>
+  </si>
+  <si>
+    <t>5.61%</t>
+  </si>
+  <si>
+    <t>5.31%</t>
+  </si>
+  <si>
     <t>HEYMAN W</t>
   </si>
   <si>
@@ -397,58 +490,7 @@
     <t>3.55%</t>
   </si>
   <si>
-    <t>ROARK E</t>
-  </si>
-  <si>
-    <t>18.29%</t>
-  </si>
-  <si>
-    <t>40.24%</t>
-  </si>
-  <si>
-    <t>20.73%</t>
-  </si>
-  <si>
-    <t>12.20%</t>
-  </si>
-  <si>
-    <t>8.54%</t>
-  </si>
-  <si>
-    <t>LAFON C</t>
-  </si>
-  <si>
-    <t>14.47%</t>
-  </si>
-  <si>
-    <t>50.94%</t>
-  </si>
-  <si>
-    <t>27.67%</t>
-  </si>
-  <si>
-    <t>5.03%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>CAIRNS D</t>
-  </si>
-  <si>
-    <t>15.89%</t>
-  </si>
-  <si>
-    <t>28.04%</t>
-  </si>
-  <si>
-    <t>42.06%</t>
-  </si>
-  <si>
-    <t>8.41%</t>
-  </si>
-  <si>
-    <t>5.61%</t>
+    <t>0.59%</t>
   </si>
   <si>
     <t>GEOG-213</t>
@@ -481,6 +523,9 @@
     <t>1.41%</t>
   </si>
   <si>
+    <t>1.39%</t>
+  </si>
+  <si>
     <t>GEOG-304</t>
   </si>
   <si>
@@ -499,6 +544,9 @@
     <t>6.15%</t>
   </si>
   <si>
+    <t>2.99%</t>
+  </si>
+  <si>
     <t>GEOG-305</t>
   </si>
   <si>
@@ -517,6 +565,9 @@
     <t>2.59%</t>
   </si>
   <si>
+    <t>4.13%</t>
+  </si>
+  <si>
     <t>GEOG-306</t>
   </si>
   <si>
@@ -529,12 +580,12 @@
     <t>28.07%</t>
   </si>
   <si>
-    <t>5.26%</t>
-  </si>
-  <si>
     <t>1.75%</t>
   </si>
   <si>
+    <t>13.64%</t>
+  </si>
+  <si>
     <t>GEOG-320</t>
   </si>
   <si>
@@ -547,6 +598,9 @@
     <t>3.51%</t>
   </si>
   <si>
+    <t>1.72%</t>
+  </si>
+  <si>
     <t>GEOG-324</t>
   </si>
   <si>
@@ -577,6 +631,9 @@
     <t>1.69%</t>
   </si>
   <si>
+    <t>3.28%</t>
+  </si>
+  <si>
     <t>GEOG-330</t>
   </si>
   <si>
@@ -586,6 +643,9 @@
     <t>29.82%</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>GEOG-352</t>
   </si>
   <si>
@@ -658,6 +718,9 @@
     <t>35.00%</t>
   </si>
   <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>GEOG-401</t>
   </si>
   <si>
@@ -742,6 +805,9 @@
     <t>13.33%</t>
   </si>
   <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>GEOG-624</t>
   </si>
   <si>
@@ -757,9 +823,6 @@
     <t>27.27%</t>
   </si>
   <si>
-    <t>9.09%</t>
-  </si>
-  <si>
     <t>GEOG-661</t>
   </si>
   <si>
@@ -796,6 +859,9 @@
     <t>2.00%</t>
   </si>
   <si>
+    <t>0.99%</t>
+  </si>
+  <si>
     <t>RAYMOND A</t>
   </si>
   <si>
@@ -814,6 +880,24 @@
     <t>4.95%</t>
   </si>
   <si>
+    <t>2.88%</t>
+  </si>
+  <si>
+    <t>BENAVIDES I</t>
+  </si>
+  <si>
+    <t>51.82%</t>
+  </si>
+  <si>
+    <t>35.45%</t>
+  </si>
+  <si>
+    <t>12.73%</t>
+  </si>
+  <si>
+    <t>0.90%</t>
+  </si>
+  <si>
     <t>KRONENBERG A</t>
   </si>
   <si>
@@ -844,6 +928,9 @@
     <t>2.75%</t>
   </si>
   <si>
+    <t>2.68%</t>
+  </si>
+  <si>
     <t>YANCEY T</t>
   </si>
   <si>
@@ -856,16 +943,7 @@
     <t>2.35%</t>
   </si>
   <si>
-    <t>BENAVIDES I</t>
-  </si>
-  <si>
-    <t>51.82%</t>
-  </si>
-  <si>
-    <t>35.45%</t>
-  </si>
-  <si>
-    <t>12.73%</t>
+    <t>3.41%</t>
   </si>
   <si>
     <t>GEOL-106</t>
@@ -883,6 +961,9 @@
     <t>6.06%</t>
   </si>
   <si>
+    <t>2.94%</t>
+  </si>
+  <si>
     <t>GEOL-203</t>
   </si>
   <si>
@@ -895,6 +976,9 @@
     <t>2.08%</t>
   </si>
   <si>
+    <t>2.04%</t>
+  </si>
+  <si>
     <t>GEOL-302</t>
   </si>
   <si>
@@ -913,6 +997,9 @@
     <t>7.55%</t>
   </si>
   <si>
+    <t>17.19%</t>
+  </si>
+  <si>
     <t>GEOL-306</t>
   </si>
   <si>
@@ -925,6 +1012,9 @@
     <t>45.00%</t>
   </si>
   <si>
+    <t>2.44%</t>
+  </si>
+  <si>
     <t>GEOL-309</t>
   </si>
   <si>
@@ -961,6 +1051,9 @@
     <t>10.53%</t>
   </si>
   <si>
+    <t>2.56%</t>
+  </si>
+  <si>
     <t>GEOL-312</t>
   </si>
   <si>
@@ -1189,9 +1282,6 @@
     <t>90.00%</t>
   </si>
   <si>
-    <t>5.00%</t>
-  </si>
-  <si>
     <t>OCNG-251</t>
   </si>
   <si>
@@ -1210,6 +1300,9 @@
     <t>1.48%</t>
   </si>
   <si>
+    <t>1.46%</t>
+  </si>
+  <si>
     <t>JACKSON G</t>
   </si>
   <si>
@@ -1222,6 +1315,9 @@
     <t>14.04%</t>
   </si>
   <si>
+    <t>6.56%</t>
+  </si>
+  <si>
     <t>SERICANO J</t>
   </si>
   <si>
@@ -1237,6 +1333,9 @@
     <t>5.38%</t>
   </si>
   <si>
+    <t>4.12%</t>
+  </si>
+  <si>
     <t>THOMAS D</t>
   </si>
   <si>
@@ -1255,6 +1354,9 @@
     <t>0.74%</t>
   </si>
   <si>
+    <t>1.45%</t>
+  </si>
+  <si>
     <t>MILLS H</t>
   </si>
   <si>
@@ -1270,6 +1372,9 @@
     <t>1.37%</t>
   </si>
   <si>
+    <t>1.35%</t>
+  </si>
+  <si>
     <t>WORMUTH J</t>
   </si>
   <si>
@@ -1282,6 +1387,9 @@
     <t>20.92%</t>
   </si>
   <si>
+    <t>1.01%</t>
+  </si>
+  <si>
     <t>21.43%</t>
   </si>
   <si>
@@ -1289,6 +1397,9 @@
   </si>
   <si>
     <t>1.79%</t>
+  </si>
+  <si>
+    <t>5.08%</t>
   </si>
   <si>
     <t>THORNTON D</t>
@@ -1419,12 +1530,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1718,15 +1828,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H325"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1751,3380 +1861,3758 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.109</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>3.044</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
         <v>3.1449</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
         <v>2.722</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
         <v>3.12</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" t="s">
-        <v>28</v>
       </c>
       <c r="C16" t="n">
         <v>3.3</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
         <v>2.333</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
         <v>47</v>
       </c>
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C22" t="n">
         <v>3.389</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C25" t="n">
         <v>3.546</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" t="s">
         <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" t="s">
-        <v>28</v>
       </c>
       <c r="C28" t="n">
         <v>3.391</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C31" t="n">
         <v>3.8845</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" t="s">
         <v>32</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" t="s">
-        <v>28</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C40" t="n">
         <v>3.438</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C43" t="n">
         <v>3.357</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C46" t="n">
         <v>3.4</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C49" t="n">
         <v>3.625</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C52" t="n">
         <v>3.667</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C55" t="n">
         <v>3.119</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G55" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C56" t="n">
         <v>2.5545</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C59" t="n">
         <v>3.3135</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G59" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C60" t="n">
         <v>2.908</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G60" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C61" t="n">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G61" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C64" t="n">
         <v>2.8</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C65" t="n">
+        <v>2.4614</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" t="s">
+        <v>135</v>
+      </c>
+      <c r="H65" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.7129</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" t="s">
+        <v>141</v>
+      </c>
+      <c r="G66" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.3768</v>
+      </c>
+      <c r="D67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" t="s">
+        <v>148</v>
+      </c>
+      <c r="G67" t="s">
+        <v>149</v>
+      </c>
+      <c r="H67" t="s">
+        <v>150</v>
+      </c>
+      <c r="I67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="n">
         <v>2.6444</v>
       </c>
-      <c r="D65" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" t="s">
-        <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
-      </c>
-      <c r="G65" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2.4614</v>
-      </c>
-      <c r="D66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" t="s">
-        <v>131</v>
-      </c>
-      <c r="H66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="B67" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2.7129</v>
-      </c>
-      <c r="D67" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" t="s">
-        <v>136</v>
-      </c>
-      <c r="G67" t="s">
-        <v>137</v>
-      </c>
-      <c r="H67" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="B68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2.3768</v>
-      </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F68" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G68" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="H68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C71" t="n">
         <v>3.526</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C74" t="n">
         <v>2.725</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G74" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="H74" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C77" t="n">
         <v>2.8</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F77" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="G77" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="H77" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C80" t="n">
         <v>2.698</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G80" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="H80" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I80" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C83" t="n">
         <v>2.825</v>
       </c>
       <c r="D83" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E83" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="H83" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C86" t="n">
         <v>2.772</v>
       </c>
       <c r="D86" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E86" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F86" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G86" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H86" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="I86" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C89" t="n">
         <v>2.765</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E89" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F89" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C92" t="n">
         <v>2.848</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G92" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="H92" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>204</v>
+      </c>
+      <c r="I92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C95" t="n">
         <v>3.281</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="E95" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F95" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I95" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C98" t="n">
         <v>3.474</v>
       </c>
       <c r="D98" t="s">
+        <v>212</v>
+      </c>
+      <c r="E98" t="s">
         <v>192</v>
       </c>
-      <c r="E98" t="s">
-        <v>175</v>
-      </c>
       <c r="F98" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H98" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C101" t="n">
         <v>3.053</v>
       </c>
       <c r="D101" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E101" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="F101" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H101" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C104" t="n">
         <v>2.562</v>
       </c>
       <c r="D104" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="E104" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F104" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G104" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H104" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I104" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C107" t="n">
         <v>3.905</v>
       </c>
       <c r="D107" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H107" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C110" t="n">
         <v>2.8363</v>
       </c>
       <c r="D110" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="F110" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G110" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="H110" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C113" t="n">
         <v>2.95</v>
       </c>
       <c r="D113" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F113" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H113" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I113" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C116" t="n">
         <v>3.444</v>
       </c>
       <c r="D116" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H116" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I116" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C119" t="n">
         <v>3.133</v>
       </c>
       <c r="D119" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E119" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="F119" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H119" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I119" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C122" t="n">
         <v>3.714</v>
       </c>
       <c r="D122" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H122" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C125" t="n">
         <v>2.878</v>
       </c>
       <c r="D125" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="E125" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F125" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="G125" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="H125" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I125" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C128" t="n">
         <v>2.58</v>
       </c>
       <c r="D128" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F128" t="s">
+        <v>244</v>
+      </c>
+      <c r="G128" t="s">
         <v>223</v>
       </c>
-      <c r="G128" t="s">
-        <v>203</v>
-      </c>
       <c r="H128" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I128" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="C131" t="n">
         <v>3.429</v>
       </c>
       <c r="D131" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E131" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F131" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H131" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I131" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H134" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C137" t="n">
         <v>3.778</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H137" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="C140" t="n">
         <v>3.733</v>
       </c>
       <c r="D140" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E140" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H140" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I140" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C143" t="n">
         <v>3.4</v>
       </c>
       <c r="D143" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H143" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I143" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C146" t="n">
         <v>3.636</v>
       </c>
       <c r="D146" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E146" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H146" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I146" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C149" t="n">
         <v>3.273</v>
       </c>
       <c r="D149" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E149" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F149" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G149" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H149" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I149" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="C152" t="n">
         <v>3.667</v>
       </c>
       <c r="D152" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E152" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H152" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I152" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C155" t="n">
         <v>3.773</v>
       </c>
       <c r="D155" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="E155" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H155" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I155" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C158" t="n">
         <v>3.286</v>
       </c>
       <c r="D158" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E158" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F158" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H158" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I158" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C159" t="n">
         <v>3.6</v>
       </c>
       <c r="D159" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E159" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H159" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I159" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C162" t="n">
         <v>2.7977</v>
       </c>
       <c r="D162" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="E162" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="F162" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="G162" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="H162" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>280</v>
+      </c>
+      <c r="I162" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C163" t="n">
         <v>2.578</v>
       </c>
       <c r="D163" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E163" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="F163" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="G163" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="H163" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I163" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C164" t="n">
+        <v>3.3951</v>
+      </c>
+      <c r="D164" t="s">
+        <v>290</v>
+      </c>
+      <c r="E164" t="s">
+        <v>291</v>
+      </c>
+      <c r="F164" t="s">
+        <v>292</v>
+      </c>
+      <c r="G164" t="s">
+        <v>36</v>
+      </c>
+      <c r="H164" t="s">
+        <v>36</v>
+      </c>
+      <c r="I164" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="B165" t="s">
+        <v>294</v>
+      </c>
+      <c r="C165" t="n">
         <v>2.7811</v>
       </c>
-      <c r="D164" t="s">
-        <v>37</v>
-      </c>
-      <c r="E164" t="s">
-        <v>267</v>
-      </c>
-      <c r="F164" t="s">
-        <v>268</v>
-      </c>
-      <c r="G164" t="s">
-        <v>269</v>
-      </c>
-      <c r="H164" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="B165" t="s">
-        <v>270</v>
-      </c>
-      <c r="C165" t="n">
+      <c r="D165" t="s">
+        <v>42</v>
+      </c>
+      <c r="E165" t="s">
+        <v>295</v>
+      </c>
+      <c r="F165" t="s">
+        <v>296</v>
+      </c>
+      <c r="G165" t="s">
+        <v>297</v>
+      </c>
+      <c r="H165" t="s">
+        <v>36</v>
+      </c>
+      <c r="I165" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="B166" t="s">
+        <v>298</v>
+      </c>
+      <c r="C166" t="n">
         <v>2.9379</v>
       </c>
-      <c r="D165" t="s">
-        <v>271</v>
-      </c>
-      <c r="E165" t="s">
-        <v>272</v>
-      </c>
-      <c r="F165" t="s">
-        <v>273</v>
-      </c>
-      <c r="G165" t="s">
-        <v>274</v>
-      </c>
-      <c r="H165" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="B166" t="s">
-        <v>276</v>
-      </c>
-      <c r="C166" t="n">
+      <c r="D166" t="s">
+        <v>299</v>
+      </c>
+      <c r="E166" t="s">
+        <v>300</v>
+      </c>
+      <c r="F166" t="s">
+        <v>301</v>
+      </c>
+      <c r="G166" t="s">
+        <v>302</v>
+      </c>
+      <c r="H166" t="s">
+        <v>303</v>
+      </c>
+      <c r="I166" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="B167" t="s">
+        <v>305</v>
+      </c>
+      <c r="C167" t="n">
         <v>2.8113</v>
       </c>
-      <c r="D166" t="s">
-        <v>48</v>
-      </c>
-      <c r="E166" t="s">
-        <v>277</v>
-      </c>
-      <c r="F166" t="s">
-        <v>48</v>
-      </c>
-      <c r="G166" t="s">
-        <v>278</v>
-      </c>
-      <c r="H166" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>280</v>
-      </c>
-      <c r="C167" t="n">
-        <v>3.3951</v>
-      </c>
       <c r="D167" t="s">
-        <v>281</v>
+        <v>53</v>
       </c>
       <c r="E167" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="F167" t="s">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="H167" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>308</v>
+      </c>
+      <c r="I167" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="C170" t="n">
         <v>2.8336</v>
       </c>
       <c r="D170" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E170" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="F170" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G170" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="H170" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I170" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="C173" t="n">
         <v>2.4993</v>
       </c>
       <c r="D173" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="E173" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F173" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H173" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>319</v>
+      </c>
+      <c r="I173" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="C176" t="n">
         <v>2.643</v>
       </c>
       <c r="D176" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="E176" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="F176" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="G176" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="H176" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I176" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="C179" t="n">
         <v>2.749</v>
       </c>
       <c r="D179" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="E179" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="F179" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H179" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I179" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="C182" t="n">
         <v>3.132</v>
       </c>
       <c r="D182" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="E182" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H182" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>336</v>
+      </c>
+      <c r="I182" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="C185" t="n">
         <v>2.719</v>
       </c>
       <c r="D185" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="E185" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F185" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G185" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="H185" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>339</v>
+      </c>
+      <c r="I185" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="C188" t="n">
         <v>2.9215</v>
       </c>
       <c r="D188" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E188" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="F188" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H188" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>344</v>
+      </c>
+      <c r="I188" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="C191" t="n">
         <v>2.708</v>
       </c>
       <c r="D191" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E191" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H191" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I191" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="B192" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="C192" t="n">
         <v>2.8413</v>
       </c>
       <c r="D192" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="E192" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="F192" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="G192" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="H192" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>352</v>
+      </c>
+      <c r="I192" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C195" t="n">
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E195" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="F195" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H195" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I195" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="B198" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C198" t="n">
         <v>3.556</v>
       </c>
       <c r="D198" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="E198" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F198" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H198" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I198" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="B201" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="C201" t="n">
         <v>3.132</v>
       </c>
       <c r="D201" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E201" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="F201" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="G201" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="H201" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I201" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="C204" t="n">
         <v>2.2915</v>
       </c>
       <c r="D204" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="E204" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="F204" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="G204" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="H204" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>365</v>
+      </c>
+      <c r="I204" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="C207" t="n">
         <v>2.787</v>
       </c>
       <c r="D207" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="E207" t="s">
+        <v>369</v>
+      </c>
+      <c r="F207" t="s">
+        <v>370</v>
+      </c>
+      <c r="G207" t="s">
+        <v>371</v>
+      </c>
+      <c r="H207" t="s">
+        <v>372</v>
+      </c>
+      <c r="I207" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="B210" t="s">
         <v>338</v>
-      </c>
-      <c r="F207" t="s">
-        <v>339</v>
-      </c>
-      <c r="G207" t="s">
-        <v>340</v>
-      </c>
-      <c r="H207" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="B210" t="s">
-        <v>308</v>
       </c>
       <c r="C210" t="n">
         <v>3.125</v>
       </c>
       <c r="D210" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E210" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F210" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H210" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I210" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="C213" t="n">
         <v>3.227</v>
       </c>
       <c r="D213" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="E213" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="F213" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H213" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I213" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C216" t="n">
         <v>3.222</v>
       </c>
       <c r="D216" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="E216" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H216" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>381</v>
+      </c>
+      <c r="I216" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="C219" t="n">
         <v>3.909</v>
       </c>
       <c r="D219" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="E219" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H219" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I219" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="C222" t="n">
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E222" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H222" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I222" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="C225" t="n">
         <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E225" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H225" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I225" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="C228" t="n">
         <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E228" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H228" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I228" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="C231" t="n">
         <v>3.429</v>
       </c>
       <c r="D231" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="E231" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F231" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H231" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I231" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="C234" t="n">
         <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E234" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H234" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I234" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="B235" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="C235" t="n">
         <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E235" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H235" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I235" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="B238" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="C238" t="n">
         <v>3.5</v>
       </c>
       <c r="D238" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H238" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I238" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="C241" t="n">
         <v>3.267</v>
       </c>
       <c r="D241" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E241" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G241" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="H241" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I241" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C244" t="n">
         <v>3.75</v>
       </c>
       <c r="D244" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E244" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H244" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I244" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="C247" t="n">
         <v>3.4</v>
       </c>
       <c r="D247" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E247" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F247" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H247" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I247" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C250" t="n">
         <v>3.389</v>
       </c>
       <c r="D250" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E250" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F250" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H250" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I250" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C253" t="n">
         <v>3.077</v>
       </c>
       <c r="D253" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="E253" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="F253" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="G253" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="H253" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>405</v>
+      </c>
+      <c r="I253" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C254" t="n">
         <v>3.174</v>
       </c>
       <c r="D254" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="E254" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="F254" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H254" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I254" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="C257" t="n">
         <v>3.333</v>
       </c>
       <c r="D257" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E257" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="F257" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G257" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H257" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I257" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="B260" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C260" t="n">
         <v>3.128</v>
       </c>
       <c r="D260" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="E260" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="F260" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="G260" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="H260" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>372</v>
+      </c>
+      <c r="I260" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="C263" t="n">
         <v>2.846</v>
       </c>
       <c r="D263" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="E263" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="F263" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="G263" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="H263" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>417</v>
+      </c>
+      <c r="I263" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C266" t="n">
         <v>3.5</v>
       </c>
       <c r="D266" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="E266" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F266" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G266" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H266" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I266" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="C267" t="n">
         <v>3.85</v>
       </c>
       <c r="D267" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="E267" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="F267" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="G267" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H267" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I267" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="B270" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="C270" t="n">
         <v>3.1245</v>
       </c>
       <c r="D270" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E270" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="F270" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="G270" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="H270" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>427</v>
+      </c>
+      <c r="I270" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="B271" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="C271" t="n">
         <v>2.596</v>
       </c>
       <c r="D271" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="E271" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F271" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="G271" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="H271" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="I271" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="C272" t="n">
         <v>2.839</v>
       </c>
       <c r="D272" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="E272" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="F272" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="G272" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="H272" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>438</v>
+      </c>
+      <c r="I272" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="C273" t="n">
         <v>3.027</v>
       </c>
       <c r="D273" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="E273" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="F273" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="G273" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="H273" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>445</v>
+      </c>
+      <c r="I273" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="B274" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="C274" t="n">
         <v>3.164</v>
       </c>
       <c r="D274" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="E274" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="F274" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="G274" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="H274" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I274" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="C275" t="n">
         <v>3.117</v>
       </c>
       <c r="D275" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="E275" t="s">
+        <v>455</v>
+      </c>
+      <c r="F275" t="s">
+        <v>456</v>
+      </c>
+      <c r="G275" t="s">
+        <v>36</v>
+      </c>
+      <c r="H275" t="s">
+        <v>36</v>
+      </c>
+      <c r="I275" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="B276" t="s">
         <v>420</v>
-      </c>
-      <c r="F275" t="s">
-        <v>421</v>
-      </c>
-      <c r="G275" t="s">
-        <v>32</v>
-      </c>
-      <c r="H275" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="B276" t="s">
-        <v>389</v>
       </c>
       <c r="C276" t="n">
         <v>2.982</v>
       </c>
       <c r="D276" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="E276" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="F276" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="G276" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="H276" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>460</v>
+      </c>
+      <c r="I276" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="B277" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="C277" t="n">
         <v>3.55</v>
       </c>
       <c r="D277" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="E277" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="F277" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G277" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H277" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I277" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="B280" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="C280" t="n">
         <v>3.778</v>
       </c>
       <c r="D280" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E280" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F280" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G280" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H280" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I280" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="B283" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="C283" t="n">
         <v>2.917</v>
       </c>
       <c r="D283" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="E283" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="F283" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G283" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H283" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I283" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="B286" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="C286" t="n">
         <v>2.55</v>
       </c>
       <c r="D286" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="E286" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="F286" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="G286" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="H286" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I286" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="A288" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="B289" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C289" t="n">
         <v>3.846</v>
       </c>
       <c r="D289" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="E289" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="F289" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G289" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H289" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I289" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="B292" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="C292" t="n">
         <v>3</v>
       </c>
       <c r="D292" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E292" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F292" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="G292" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="H292" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I292" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="B295" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="C295" t="n">
         <v>4</v>
       </c>
       <c r="D295" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E295" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F295" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G295" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H295" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I295" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="B298" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="C298" t="n">
         <v>3.875</v>
       </c>
       <c r="D298" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="E298" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F298" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G298" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H298" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I298" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="A300" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="B301" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="C301" t="n">
         <v>3.714</v>
       </c>
       <c r="D301" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E301" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F301" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G301" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H301" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I301" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="A303" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="B304" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="C304" t="n">
         <v>3.5</v>
       </c>
       <c r="D304" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E304" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F304" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G304" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H304" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I304" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="B307" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="C307" t="n">
         <v>3.6</v>
       </c>
       <c r="D307" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E307" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F307" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H307" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I307" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="B310" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="C310" t="n">
         <v>3.143</v>
       </c>
       <c r="D310" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="E310" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F310" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G310" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H310" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>273</v>
+      </c>
+      <c r="I310" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="B313" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="C313" t="n">
         <v>3.571</v>
       </c>
       <c r="D313" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E313" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="F313" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="G313" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H313" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I313" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="B316" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="C316" t="n">
         <v>4</v>
       </c>
       <c r="D316" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E316" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F316" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G316" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H316" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I316" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="B319" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="C319" t="n">
         <v>4</v>
       </c>
       <c r="D319" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E319" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F319" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G319" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H319" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I319" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="A321" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="B322" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="C322" t="n">
         <v>4</v>
       </c>
       <c r="D322" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E322" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F322" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G322" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H322" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I322" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="A324" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="B325" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="C325" t="n">
         <v>4</v>
       </c>
       <c r="D325" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E325" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F325" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G325" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H325" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="I325" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2013/Output/Spring2013 GE.xlsx
+++ b/GradeDistributionsDB/Spring2013/Output/Spring2013 GE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="471">
   <si>
     <t>Course</t>
   </si>
@@ -133,6 +133,21 @@
     <t>4.00%</t>
   </si>
   <si>
+    <t>ATMO-324</t>
+  </si>
+  <si>
+    <t>NIELSEN-GAMMON J</t>
+  </si>
+  <si>
+    <t>44.44%</t>
+  </si>
+  <si>
+    <t>48.15%</t>
+  </si>
+  <si>
+    <t>7.41%</t>
+  </si>
+  <si>
     <t>ATMO-352</t>
   </si>
   <si>
@@ -169,9 +184,6 @@
     <t>NASIRI S</t>
   </si>
   <si>
-    <t>44.44%</t>
-  </si>
-  <si>
     <t>5.56%</t>
   </si>
   <si>
@@ -1123,6 +1135,21 @@
     <t>GIBSON R</t>
   </si>
   <si>
+    <t>GEOS-105</t>
+  </si>
+  <si>
+    <t>YVON-LEWIS S</t>
+  </si>
+  <si>
+    <t>17.50%</t>
+  </si>
+  <si>
+    <t>65.00%</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
     <t>GEOS-401</t>
   </si>
   <si>
@@ -1294,7 +1321,22 @@
     <t>THORNTON D</t>
   </si>
   <si>
-    <t>65.00%</t>
+    <t>OCNG-252</t>
+  </si>
+  <si>
+    <t>60.81%</t>
+  </si>
+  <si>
+    <t>29.48%</t>
+  </si>
+  <si>
+    <t>7.05%</t>
+  </si>
+  <si>
+    <t>1.62%</t>
+  </si>
+  <si>
+    <t>1.04%</t>
   </si>
   <si>
     <t>OCNG-401</t>
@@ -1316,6 +1358,9 @@
   </si>
   <si>
     <t>CAMPBELL L</t>
+  </si>
+  <si>
+    <t>OCNG-440</t>
   </si>
   <si>
     <t>OCNG-451</t>
@@ -1718,7 +1763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H325"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1894,19 +1939,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>3.3</v>
+        <v>3.3555</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
         <v>32</v>
@@ -1917,15 +1962,15 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>2.333</v>
+        <v>3.3</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -1937,7 +1982,7 @@
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -1945,27 +1990,27 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
@@ -1973,24 +2018,24 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="n">
-        <v>3.546</v>
+        <v>3.389</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>56</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -2006,19 +2051,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>3.391</v>
+        <v>3.546</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -2034,19 +2079,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.391</v>
+      </c>
+      <c r="D31" t="s">
         <v>62</v>
       </c>
-      <c r="C31" t="n">
-        <v>3.8845</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>63</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>64</v>
-      </c>
-      <c r="F31" t="s">
-        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -2065,13 +2110,13 @@
         <v>66</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3.8845</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>32</v>
@@ -2085,18 +2130,18 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
         <v>32</v>
@@ -2113,21 +2158,21 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C40" t="n">
-        <v>3.438</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
         <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
         <v>32</v>
@@ -2146,19 +2191,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C43" t="n">
-        <v>3.357</v>
+        <v>3.438</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -2169,24 +2214,24 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C46" t="n">
-        <v>3.4</v>
+        <v>3.357</v>
       </c>
       <c r="D46" t="s">
         <v>78</v>
       </c>
       <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
         <v>79</v>
-      </c>
-      <c r="F46" t="s">
-        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -2205,7 +2250,7 @@
         <v>81</v>
       </c>
       <c r="C49" t="n">
-        <v>3.625</v>
+        <v>3.4</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -2214,7 +2259,7 @@
         <v>83</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>32</v>
@@ -2233,16 +2278,16 @@
         <v>85</v>
       </c>
       <c r="C52" t="n">
-        <v>3.667</v>
+        <v>3.625</v>
       </c>
       <c r="D52" t="s">
         <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -2253,412 +2298,412 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C55" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="n">
         <v>3.119</v>
       </c>
-      <c r="D55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" t="s">
+      <c r="D58" t="s">
         <v>93</v>
       </c>
-      <c r="C56" t="n">
-        <v>2.5545</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E58" t="s">
         <v>94</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F58" t="s">
         <v>95</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G58" t="s">
         <v>96</v>
       </c>
-      <c r="G56" t="s">
-        <v>97</v>
-      </c>
-      <c r="H56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>99</v>
+      <c r="H58" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.5545</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" t="s">
         <v>100</v>
       </c>
-      <c r="C59" t="n">
+      <c r="G59" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" t="n">
         <v>3.3135</v>
       </c>
-      <c r="D59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" t="s">
-        <v>103</v>
-      </c>
-      <c r="G59" t="s">
-        <v>104</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="D62" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" t="s">
+      <c r="E62" t="s">
         <v>106</v>
       </c>
-      <c r="C60" t="n">
+      <c r="F62" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" t="n">
         <v>2.908</v>
       </c>
-      <c r="D60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60" t="s">
-        <v>110</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="D63" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" t="s">
+      <c r="E63" t="s">
         <v>112</v>
       </c>
-      <c r="C61" t="n">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="F63" t="s">
         <v>113</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G63" t="s">
         <v>114</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H63" t="s">
         <v>115</v>
-      </c>
-      <c r="G61" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" t="s">
         <v>118</v>
       </c>
-      <c r="C64" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>119</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>120</v>
       </c>
-      <c r="F64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" t="s">
-        <v>38</v>
-      </c>
       <c r="H64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
         <v>121</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2.6444</v>
-      </c>
-      <c r="D65" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" t="s">
-        <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
-      </c>
-      <c r="G65" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2.4614</v>
-      </c>
-      <c r="D66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" t="s">
-        <v>131</v>
-      </c>
-      <c r="H66" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C67" t="n">
-        <v>2.7129</v>
+        <v>2.8</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.6444</v>
+      </c>
+      <c r="D68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" t="s">
+        <v>129</v>
+      </c>
+      <c r="H68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.4614</v>
+      </c>
+      <c r="D69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" t="s">
+        <v>134</v>
+      </c>
+      <c r="G69" t="s">
+        <v>135</v>
+      </c>
+      <c r="H69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.7129</v>
+      </c>
+      <c r="D70" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" t="s">
         <v>139</v>
       </c>
-      <c r="C68" t="n">
-        <v>2.3768</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="F70" t="s">
         <v>140</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G70" t="s">
         <v>141</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H70" t="s">
         <v>142</v>
-      </c>
-      <c r="G68" t="s">
-        <v>143</v>
-      </c>
-      <c r="H68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.3768</v>
+      </c>
+      <c r="D71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" t="s">
         <v>146</v>
       </c>
-      <c r="C71" t="n">
-        <v>3.526</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="G71" t="s">
         <v>147</v>
       </c>
-      <c r="E71" t="s">
-        <v>64</v>
-      </c>
-      <c r="F71" t="s">
-        <v>64</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
       <c r="H71" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" t="n">
-        <v>2.725</v>
+        <v>3.526</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="G74" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.725</v>
+      </c>
+      <c r="D77" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" t="s">
         <v>156</v>
       </c>
-      <c r="C77" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="G77" t="s">
         <v>157</v>
       </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>158</v>
-      </c>
-      <c r="F77" t="s">
-        <v>159</v>
-      </c>
-      <c r="G77" t="s">
-        <v>160</v>
-      </c>
-      <c r="H77" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C80" t="n">
-        <v>2.698</v>
+        <v>2.8</v>
       </c>
       <c r="D80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" t="s">
         <v>162</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>163</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>164</v>
       </c>
-      <c r="G80" t="s">
-        <v>165</v>
-      </c>
       <c r="H80" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.698</v>
+      </c>
+      <c r="D83" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" t="s">
+        <v>167</v>
+      </c>
+      <c r="F83" t="s">
         <v>168</v>
       </c>
-      <c r="C83" t="n">
-        <v>2.825</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="G83" t="s">
         <v>169</v>
       </c>
-      <c r="E83" t="s">
+      <c r="H83" t="s">
         <v>170</v>
-      </c>
-      <c r="F83" t="s">
-        <v>46</v>
-      </c>
-      <c r="G83" t="s">
-        <v>171</v>
-      </c>
-      <c r="H83" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="C86" t="n">
-        <v>2.772</v>
+        <v>2.825</v>
       </c>
       <c r="D86" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="E86" t="s">
         <v>174</v>
       </c>
       <c r="F86" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86" t="s">
         <v>175</v>
-      </c>
-      <c r="G86" t="s">
-        <v>176</v>
       </c>
       <c r="H86" t="s">
         <v>176</v>
@@ -2671,25 +2716,25 @@
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.772</v>
+      </c>
+      <c r="D89" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89" t="s">
         <v>178</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2.765</v>
-      </c>
-      <c r="D89" t="s">
-        <v>179</v>
-      </c>
-      <c r="E89" t="s">
-        <v>180</v>
       </c>
       <c r="F89" t="s">
         <v>179</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="H89" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2699,75 +2744,75 @@
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="C92" t="n">
-        <v>2.848</v>
+        <v>2.765</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E92" t="s">
+        <v>184</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
       </c>
-      <c r="F92" t="s">
-        <v>184</v>
-      </c>
       <c r="G92" t="s">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="B95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.848</v>
+      </c>
+      <c r="D95" t="s">
+        <v>186</v>
+      </c>
+      <c r="E95" t="s">
+        <v>187</v>
+      </c>
+      <c r="F95" t="s">
         <v>188</v>
       </c>
-      <c r="C95" t="n">
-        <v>3.281</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="G95" t="s">
         <v>189</v>
       </c>
-      <c r="E95" t="s">
-        <v>147</v>
-      </c>
-      <c r="F95" t="s">
-        <v>172</v>
-      </c>
-      <c r="G95" t="s">
-        <v>32</v>
-      </c>
       <c r="H95" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C98" t="n">
-        <v>3.474</v>
+        <v>3.281</v>
       </c>
       <c r="D98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F98" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="G98" t="s">
         <v>32</v>
@@ -2778,30 +2823,30 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C101" t="n">
-        <v>3.053</v>
+        <v>3.474</v>
       </c>
       <c r="D101" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E101" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="F101" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G101" t="s">
         <v>32</v>
       </c>
       <c r="H101" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -2814,7 +2859,7 @@
         <v>198</v>
       </c>
       <c r="C104" t="n">
-        <v>2.562</v>
+        <v>3.053</v>
       </c>
       <c r="D104" t="s">
         <v>199</v>
@@ -2823,13 +2868,13 @@
         <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="G104" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="H104" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -2839,22 +2884,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="C107" t="n">
-        <v>3.905</v>
+        <v>2.562</v>
       </c>
       <c r="D107" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="H107" t="s">
         <v>32</v>
@@ -2862,58 +2907,58 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="B110" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="C110" t="n">
-        <v>2.8363</v>
+        <v>3.905</v>
       </c>
       <c r="D110" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="E110" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="H110" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="B113" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.8363</v>
+      </c>
+      <c r="D113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113" t="s">
         <v>211</v>
       </c>
-      <c r="C113" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="G113" t="s">
         <v>212</v>
       </c>
-      <c r="E113" t="s">
+      <c r="H113" t="s">
         <v>213</v>
-      </c>
-      <c r="F113" t="s">
-        <v>213</v>
-      </c>
-      <c r="G113" t="s">
-        <v>32</v>
-      </c>
-      <c r="H113" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -2923,25 +2968,25 @@
     </row>
     <row r="116" spans="1:8">
       <c r="B116" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="C116" t="n">
-        <v>3.444</v>
+        <v>2.95</v>
       </c>
       <c r="D116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G116" t="s">
         <v>32</v>
       </c>
       <c r="H116" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -2951,47 +2996,47 @@
     </row>
     <row r="119" spans="1:8">
       <c r="B119" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C119" t="n">
-        <v>3.133</v>
+        <v>3.444</v>
       </c>
       <c r="D119" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="E119" t="s">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="F119" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
       </c>
       <c r="H119" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="C122" t="n">
-        <v>3.714</v>
+        <v>3.133</v>
       </c>
       <c r="D122" t="s">
-        <v>222</v>
+        <v>53</v>
       </c>
       <c r="E122" t="s">
         <v>223</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="G122" t="s">
         <v>32</v>
@@ -3007,22 +3052,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="B125" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="C125" t="n">
-        <v>2.878</v>
+        <v>3.714</v>
       </c>
       <c r="D125" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E125" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F125" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="H125" t="s">
         <v>32</v>
@@ -3030,30 +3075,30 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="D128" t="s">
+        <v>229</v>
+      </c>
+      <c r="E128" t="s">
         <v>230</v>
       </c>
-      <c r="C128" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
         <v>231</v>
       </c>
-      <c r="E128" t="s">
-        <v>46</v>
-      </c>
-      <c r="F128" t="s">
-        <v>223</v>
-      </c>
       <c r="G128" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="H128" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3066,44 +3111,44 @@
         <v>234</v>
       </c>
       <c r="C131" t="n">
-        <v>3.429</v>
+        <v>2.58</v>
       </c>
       <c r="D131" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="E131" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F131" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="H131" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>3.429</v>
       </c>
       <c r="D134" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="G134" t="s">
         <v>32</v>
@@ -3114,21 +3159,21 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C137" t="n">
-        <v>3.778</v>
+        <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
         <v>32</v>
@@ -3142,24 +3187,24 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="B140" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="C140" t="n">
-        <v>3.733</v>
+        <v>3.778</v>
       </c>
       <c r="D140" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E140" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="F140" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -3175,22 +3220,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="C143" t="n">
-        <v>3.4</v>
+        <v>3.733</v>
       </c>
       <c r="D143" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="G143" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H143" t="s">
         <v>32</v>
@@ -3198,27 +3243,27 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="C146" t="n">
-        <v>3.636</v>
+        <v>3.4</v>
       </c>
       <c r="D146" t="s">
         <v>244</v>
       </c>
       <c r="E146" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
         <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H146" t="s">
         <v>32</v>
@@ -3226,27 +3271,27 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="B149" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C149" t="n">
-        <v>3.273</v>
+        <v>3.636</v>
       </c>
       <c r="D149" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="E149" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="F149" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="H149" t="s">
         <v>32</v>
@@ -3254,27 +3299,27 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="B152" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C152" t="n">
-        <v>3.667</v>
+        <v>3.273</v>
       </c>
       <c r="D152" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E152" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="H152" t="s">
         <v>32</v>
@@ -3282,21 +3327,21 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="B155" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="C155" t="n">
-        <v>3.773</v>
+        <v>3.667</v>
       </c>
       <c r="D155" t="s">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="E155" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="F155" t="s">
         <v>32</v>
@@ -3305,214 +3350,214 @@
         <v>32</v>
       </c>
       <c r="H155" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="B158" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C158" t="n">
+        <v>3.773</v>
+      </c>
+      <c r="D158" t="s">
+        <v>254</v>
+      </c>
+      <c r="E158" t="s">
+        <v>213</v>
+      </c>
+      <c r="F158" t="s">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>32</v>
+      </c>
+      <c r="H158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="B161" t="s">
+        <v>182</v>
+      </c>
+      <c r="C161" t="n">
         <v>3.286</v>
       </c>
-      <c r="D158" t="s">
-        <v>74</v>
-      </c>
-      <c r="E158" t="s">
-        <v>74</v>
-      </c>
-      <c r="F158" t="s">
-        <v>252</v>
-      </c>
-      <c r="G158" t="s">
-        <v>32</v>
-      </c>
-      <c r="H158" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="B159" t="s">
-        <v>198</v>
-      </c>
-      <c r="C159" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D159" t="s">
-        <v>79</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="D161" t="s">
         <v>78</v>
       </c>
-      <c r="F159" t="s">
-        <v>32</v>
-      </c>
-      <c r="G159" t="s">
-        <v>32</v>
-      </c>
-      <c r="H159" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" t="s">
-        <v>253</v>
+      <c r="E161" t="s">
+        <v>78</v>
+      </c>
+      <c r="F161" t="s">
+        <v>256</v>
+      </c>
+      <c r="G161" t="s">
+        <v>32</v>
+      </c>
+      <c r="H161" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="B162" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="C162" t="n">
-        <v>2.7977</v>
+        <v>3.6</v>
       </c>
       <c r="D162" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E162" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="F162" t="s">
+        <v>32</v>
+      </c>
+      <c r="G162" t="s">
+        <v>32</v>
+      </c>
+      <c r="H162" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
         <v>257</v>
-      </c>
-      <c r="G162" t="s">
-        <v>258</v>
-      </c>
-      <c r="H162" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="B163" t="s">
-        <v>260</v>
-      </c>
-      <c r="C163" t="n">
-        <v>2.578</v>
-      </c>
-      <c r="D163" t="s">
-        <v>261</v>
-      </c>
-      <c r="E163" t="s">
-        <v>262</v>
-      </c>
-      <c r="F163" t="s">
-        <v>263</v>
-      </c>
-      <c r="G163" t="s">
-        <v>264</v>
-      </c>
-      <c r="H163" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="B164" t="s">
-        <v>266</v>
-      </c>
-      <c r="C164" t="n">
-        <v>2.7811</v>
-      </c>
-      <c r="D164" t="s">
-        <v>37</v>
-      </c>
-      <c r="E164" t="s">
-        <v>267</v>
-      </c>
-      <c r="F164" t="s">
-        <v>268</v>
-      </c>
-      <c r="G164" t="s">
-        <v>269</v>
-      </c>
-      <c r="H164" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="B165" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C165" t="n">
-        <v>2.9379</v>
+        <v>2.7977</v>
       </c>
       <c r="D165" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E165" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F165" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G165" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H165" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="B166" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C166" t="n">
-        <v>2.8113</v>
+        <v>2.578</v>
       </c>
       <c r="D166" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="E166" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="G166" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H166" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
+        <v>270</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.7811</v>
+      </c>
+      <c r="D167" t="s">
+        <v>37</v>
+      </c>
+      <c r="E167" t="s">
+        <v>271</v>
+      </c>
+      <c r="F167" t="s">
+        <v>272</v>
+      </c>
+      <c r="G167" t="s">
+        <v>273</v>
+      </c>
+      <c r="H167" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="B168" t="s">
+        <v>274</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.9379</v>
+      </c>
+      <c r="D168" t="s">
+        <v>275</v>
+      </c>
+      <c r="E168" t="s">
+        <v>276</v>
+      </c>
+      <c r="F168" t="s">
+        <v>277</v>
+      </c>
+      <c r="G168" t="s">
+        <v>278</v>
+      </c>
+      <c r="H168" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="B169" t="s">
         <v>280</v>
       </c>
-      <c r="C167" t="n">
-        <v>3.3951</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="C169" t="n">
+        <v>2.8113</v>
+      </c>
+      <c r="D169" t="s">
+        <v>53</v>
+      </c>
+      <c r="E169" t="s">
         <v>281</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F169" t="s">
+        <v>53</v>
+      </c>
+      <c r="G169" t="s">
         <v>282</v>
       </c>
-      <c r="F167" t="s">
+      <c r="H169" t="s">
         <v>283</v>
-      </c>
-      <c r="G167" t="s">
-        <v>32</v>
-      </c>
-      <c r="H167" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="B170" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C170" t="n">
-        <v>2.8336</v>
+        <v>3.3951</v>
       </c>
       <c r="D170" t="s">
         <v>285</v>
@@ -3524,7 +3569,7 @@
         <v>287</v>
       </c>
       <c r="G170" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="H170" t="s">
         <v>32</v>
@@ -3532,30 +3577,30 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="B173" t="s">
+        <v>280</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.8336</v>
+      </c>
+      <c r="D173" t="s">
+        <v>289</v>
+      </c>
+      <c r="E173" t="s">
         <v>290</v>
-      </c>
-      <c r="C173" t="n">
-        <v>2.4993</v>
-      </c>
-      <c r="D173" t="s">
-        <v>115</v>
-      </c>
-      <c r="E173" t="s">
-        <v>71</v>
       </c>
       <c r="F173" t="s">
         <v>291</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="H173" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -3568,50 +3613,50 @@
         <v>294</v>
       </c>
       <c r="C176" t="n">
-        <v>2.643</v>
+        <v>2.4993</v>
       </c>
       <c r="D176" t="s">
+        <v>119</v>
+      </c>
+      <c r="E176" t="s">
+        <v>75</v>
+      </c>
+      <c r="F176" t="s">
         <v>295</v>
       </c>
-      <c r="E176" t="s">
+      <c r="G176" t="s">
+        <v>32</v>
+      </c>
+      <c r="H176" t="s">
         <v>296</v>
-      </c>
-      <c r="F176" t="s">
-        <v>297</v>
-      </c>
-      <c r="G176" t="s">
-        <v>298</v>
-      </c>
-      <c r="H176" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="B179" t="s">
+        <v>298</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.643</v>
+      </c>
+      <c r="D179" t="s">
+        <v>299</v>
+      </c>
+      <c r="E179" t="s">
         <v>300</v>
       </c>
-      <c r="C179" t="n">
-        <v>2.749</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="F179" t="s">
         <v>301</v>
       </c>
-      <c r="E179" t="s">
+      <c r="G179" t="s">
         <v>302</v>
       </c>
-      <c r="F179" t="s">
-        <v>78</v>
-      </c>
-      <c r="G179" t="s">
-        <v>32</v>
-      </c>
       <c r="H179" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -3624,22 +3669,22 @@
         <v>304</v>
       </c>
       <c r="C182" t="n">
-        <v>3.132</v>
+        <v>2.749</v>
       </c>
       <c r="D182" t="s">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="E182" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G182" t="s">
         <v>32</v>
       </c>
       <c r="H182" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -3652,151 +3697,151 @@
         <v>308</v>
       </c>
       <c r="C185" t="n">
-        <v>2.719</v>
+        <v>3.132</v>
       </c>
       <c r="D185" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E185" t="s">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="F185" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>309</v>
+        <v>32</v>
       </c>
       <c r="H185" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C188" t="n">
-        <v>2.9215</v>
+        <v>2.719</v>
       </c>
       <c r="D188" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E188" t="s">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="F188" t="s">
+        <v>204</v>
+      </c>
+      <c r="G188" t="s">
         <v>313</v>
       </c>
-      <c r="G188" t="s">
-        <v>32</v>
-      </c>
       <c r="H188" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="B191" t="s">
+        <v>315</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.9215</v>
+      </c>
+      <c r="D191" t="s">
+        <v>200</v>
+      </c>
+      <c r="E191" t="s">
         <v>316</v>
       </c>
-      <c r="C191" t="n">
+      <c r="F191" t="s">
+        <v>317</v>
+      </c>
+      <c r="G191" t="s">
+        <v>32</v>
+      </c>
+      <c r="H191" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="B194" t="s">
+        <v>320</v>
+      </c>
+      <c r="C194" t="n">
         <v>2.708</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D194" t="s">
         <v>30</v>
       </c>
-      <c r="E191" t="s">
-        <v>291</v>
-      </c>
-      <c r="F191" t="s">
-        <v>46</v>
-      </c>
-      <c r="G191" t="s">
-        <v>32</v>
-      </c>
-      <c r="H191" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="B192" t="s">
-        <v>317</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.8413</v>
-      </c>
-      <c r="D192" t="s">
-        <v>199</v>
-      </c>
-      <c r="E192" t="s">
-        <v>318</v>
-      </c>
-      <c r="F192" t="s">
-        <v>319</v>
-      </c>
-      <c r="G192" t="s">
-        <v>320</v>
-      </c>
-      <c r="H192" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" t="s">
-        <v>322</v>
+      <c r="E194" t="s">
+        <v>295</v>
+      </c>
+      <c r="F194" t="s">
+        <v>51</v>
+      </c>
+      <c r="G194" t="s">
+        <v>32</v>
+      </c>
+      <c r="H194" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="B195" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="C195" t="n">
-        <v>3</v>
+        <v>2.8413</v>
       </c>
       <c r="D195" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="E195" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
       <c r="F195" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="H195" t="s">
-        <v>32</v>
+        <v>325</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="B198" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="C198" t="n">
-        <v>3.556</v>
+        <v>3</v>
       </c>
       <c r="D198" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="E198" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="F198" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="G198" t="s">
         <v>32</v>
@@ -3807,27 +3852,27 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="B201" t="s">
-        <v>326</v>
+        <v>195</v>
       </c>
       <c r="C201" t="n">
-        <v>3.132</v>
+        <v>3.556</v>
       </c>
       <c r="D201" t="s">
-        <v>196</v>
+        <v>328</v>
       </c>
       <c r="E201" t="s">
-        <v>327</v>
+        <v>51</v>
       </c>
       <c r="F201" t="s">
-        <v>313</v>
+        <v>56</v>
       </c>
       <c r="G201" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="H201" t="s">
         <v>32</v>
@@ -3835,108 +3880,108 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="B204" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C204" t="n">
-        <v>2.2915</v>
+        <v>3.132</v>
       </c>
       <c r="D204" t="s">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="E204" t="s">
         <v>331</v>
       </c>
       <c r="F204" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="G204" t="s">
-        <v>333</v>
+        <v>175</v>
       </c>
       <c r="H204" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="B207" t="s">
+        <v>333</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.2915</v>
+      </c>
+      <c r="D207" t="s">
+        <v>334</v>
+      </c>
+      <c r="E207" t="s">
+        <v>335</v>
+      </c>
+      <c r="F207" t="s">
         <v>336</v>
       </c>
-      <c r="C207" t="n">
-        <v>2.787</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="G207" t="s">
         <v>337</v>
       </c>
-      <c r="E207" t="s">
+      <c r="H207" t="s">
         <v>338</v>
-      </c>
-      <c r="F207" t="s">
-        <v>339</v>
-      </c>
-      <c r="G207" t="s">
-        <v>340</v>
-      </c>
-      <c r="H207" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="B210" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="C210" t="n">
-        <v>3.125</v>
+        <v>2.787</v>
       </c>
       <c r="D210" t="s">
-        <v>114</v>
+        <v>341</v>
       </c>
       <c r="E210" t="s">
-        <v>114</v>
+        <v>342</v>
       </c>
       <c r="F210" t="s">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="H210" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="B213" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="C213" t="n">
-        <v>3.227</v>
+        <v>3.125</v>
       </c>
       <c r="D213" t="s">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="E213" t="s">
-        <v>346</v>
+        <v>118</v>
       </c>
       <c r="F213" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -3955,22 +4000,22 @@
         <v>348</v>
       </c>
       <c r="C216" t="n">
-        <v>3.222</v>
+        <v>3.227</v>
       </c>
       <c r="D216" t="s">
         <v>349</v>
       </c>
       <c r="E216" t="s">
-        <v>46</v>
+        <v>350</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="G216" t="s">
         <v>32</v>
       </c>
       <c r="H216" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -3980,16 +4025,16 @@
     </row>
     <row r="219" spans="1:8">
       <c r="B219" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C219" t="n">
-        <v>3.909</v>
+        <v>3.222</v>
       </c>
       <c r="D219" t="s">
-        <v>250</v>
+        <v>353</v>
       </c>
       <c r="E219" t="s">
-        <v>247</v>
+        <v>51</v>
       </c>
       <c r="F219" t="s">
         <v>32</v>
@@ -3998,26 +4043,26 @@
         <v>32</v>
       </c>
       <c r="H219" t="s">
-        <v>32</v>
+        <v>354</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="B222" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C222" t="n">
-        <v>4</v>
+        <v>3.909</v>
       </c>
       <c r="D222" t="s">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="E222" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="F222" t="s">
         <v>32</v>
@@ -4031,18 +4076,18 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="B225" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C225" t="n">
         <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E225" t="s">
         <v>32</v>
@@ -4059,18 +4104,18 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="B228" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C228" t="n">
         <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E228" t="s">
         <v>32</v>
@@ -4087,24 +4132,24 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="B231" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="C231" t="n">
-        <v>3.429</v>
+        <v>4</v>
       </c>
       <c r="D231" t="s">
-        <v>359</v>
+        <v>71</v>
       </c>
       <c r="E231" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="F231" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -4115,72 +4160,72 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="B234" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="C234" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="D234" t="s">
+        <v>363</v>
+      </c>
+      <c r="E234" t="s">
+        <v>227</v>
+      </c>
+      <c r="F234" t="s">
+        <v>256</v>
+      </c>
+      <c r="G234" t="s">
+        <v>32</v>
+      </c>
+      <c r="H234" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="B237" t="s">
+        <v>365</v>
+      </c>
+      <c r="C237" t="n">
         <v>4</v>
       </c>
-      <c r="D234" t="s">
-        <v>67</v>
-      </c>
-      <c r="E234" t="s">
-        <v>32</v>
-      </c>
-      <c r="F234" t="s">
-        <v>32</v>
-      </c>
-      <c r="G234" t="s">
-        <v>32</v>
-      </c>
-      <c r="H234" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="B235" t="s">
-        <v>344</v>
-      </c>
-      <c r="C235" t="n">
-        <v>4</v>
-      </c>
-      <c r="D235" t="s">
-        <v>67</v>
-      </c>
-      <c r="E235" t="s">
-        <v>32</v>
-      </c>
-      <c r="F235" t="s">
-        <v>32</v>
-      </c>
-      <c r="G235" t="s">
-        <v>32</v>
-      </c>
-      <c r="H235" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" t="s">
-        <v>362</v>
+      <c r="D237" t="s">
+        <v>71</v>
+      </c>
+      <c r="E237" t="s">
+        <v>32</v>
+      </c>
+      <c r="F237" t="s">
+        <v>32</v>
+      </c>
+      <c r="G237" t="s">
+        <v>32</v>
+      </c>
+      <c r="H237" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="B238" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C238" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D238" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F238" t="s">
         <v>32</v>
@@ -4194,27 +4239,27 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="B241" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C241" t="n">
-        <v>3.267</v>
+        <v>3.5</v>
       </c>
       <c r="D241" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E241" t="s">
-        <v>365</v>
+        <v>46</v>
       </c>
       <c r="F241" t="s">
         <v>32</v>
       </c>
       <c r="G241" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="H241" t="s">
         <v>32</v>
@@ -4222,27 +4267,27 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="B244" t="s">
-        <v>280</v>
+        <v>368</v>
       </c>
       <c r="C244" t="n">
-        <v>3.75</v>
+        <v>3.267</v>
       </c>
       <c r="D244" t="s">
         <v>82</v>
       </c>
       <c r="E244" t="s">
-        <v>257</v>
+        <v>369</v>
       </c>
       <c r="F244" t="s">
         <v>32</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="H244" t="s">
         <v>32</v>
@@ -4250,21 +4295,21 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="B247" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="C247" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="D247" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E247" t="s">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="F247" t="s">
         <v>32</v>
@@ -4278,24 +4323,24 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="B250" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C250" t="n">
-        <v>3.389</v>
+        <v>3.4</v>
       </c>
       <c r="D250" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E250" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F250" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G250" t="s">
         <v>32</v>
@@ -4306,480 +4351,480 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="B253" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="C253" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="D253" t="s">
+        <v>375</v>
+      </c>
+      <c r="E253" t="s">
+        <v>376</v>
+      </c>
+      <c r="F253" t="s">
+        <v>305</v>
+      </c>
+      <c r="G253" t="s">
+        <v>377</v>
+      </c>
+      <c r="H253" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="B256" t="s">
+        <v>379</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="D256" t="s">
+        <v>41</v>
+      </c>
+      <c r="E256" t="s">
+        <v>46</v>
+      </c>
+      <c r="F256" t="s">
+        <v>56</v>
+      </c>
+      <c r="G256" t="s">
+        <v>32</v>
+      </c>
+      <c r="H256" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="B259" t="s">
+        <v>85</v>
+      </c>
+      <c r="C259" t="n">
         <v>3.077</v>
       </c>
-      <c r="D253" t="s">
-        <v>372</v>
-      </c>
-      <c r="E253" t="s">
-        <v>373</v>
-      </c>
-      <c r="F253" t="s">
-        <v>374</v>
-      </c>
-      <c r="G253" t="s">
-        <v>374</v>
-      </c>
-      <c r="H253" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="B254" t="s">
-        <v>127</v>
-      </c>
-      <c r="C254" t="n">
-        <v>3.174</v>
-      </c>
-      <c r="D254" t="s">
-        <v>375</v>
-      </c>
-      <c r="E254" t="s">
-        <v>376</v>
-      </c>
-      <c r="F254" t="s">
-        <v>377</v>
-      </c>
-      <c r="G254" t="s">
-        <v>32</v>
-      </c>
-      <c r="H254" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="B257" t="s">
-        <v>379</v>
-      </c>
-      <c r="C257" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D257" t="s">
-        <v>78</v>
-      </c>
-      <c r="E257" t="s">
-        <v>365</v>
-      </c>
-      <c r="F257" t="s">
-        <v>216</v>
-      </c>
-      <c r="G257" t="s">
-        <v>32</v>
-      </c>
-      <c r="H257" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" t="s">
-        <v>380</v>
+      <c r="D259" t="s">
+        <v>381</v>
+      </c>
+      <c r="E259" t="s">
+        <v>382</v>
+      </c>
+      <c r="F259" t="s">
+        <v>383</v>
+      </c>
+      <c r="G259" t="s">
+        <v>383</v>
+      </c>
+      <c r="H259" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="B260" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C260" t="n">
-        <v>3.128</v>
+        <v>3.174</v>
       </c>
       <c r="D260" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E260" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F260" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G260" t="s">
-        <v>341</v>
+        <v>32</v>
       </c>
       <c r="H260" t="s">
-        <v>341</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="B263" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C263" t="n">
-        <v>2.846</v>
+        <v>3.333</v>
       </c>
       <c r="D263" t="s">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="E263" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="F263" t="s">
-        <v>374</v>
+        <v>220</v>
       </c>
       <c r="G263" t="s">
-        <v>374</v>
+        <v>32</v>
       </c>
       <c r="H263" t="s">
-        <v>386</v>
+        <v>32</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="B266" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C266" t="n">
-        <v>3.5</v>
+        <v>3.128</v>
       </c>
       <c r="D266" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E266" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="F266" t="s">
-        <v>48</v>
+        <v>392</v>
       </c>
       <c r="G266" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="H266" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="B267" t="s">
-        <v>389</v>
-      </c>
-      <c r="C267" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D267" t="s">
-        <v>390</v>
-      </c>
-      <c r="E267" t="s">
-        <v>391</v>
-      </c>
-      <c r="F267" t="s">
-        <v>391</v>
-      </c>
-      <c r="G267" t="s">
-        <v>32</v>
-      </c>
-      <c r="H267" t="s">
-        <v>32</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="B270" t="s">
-        <v>393</v>
-      </c>
-      <c r="C270" t="n">
-        <v>3.1245</v>
-      </c>
-      <c r="D270" t="s">
+      <c r="B269" t="s">
         <v>394</v>
       </c>
-      <c r="E270" t="s">
+      <c r="C269" t="n">
+        <v>2.846</v>
+      </c>
+      <c r="D269" t="s">
+        <v>381</v>
+      </c>
+      <c r="E269" t="s">
         <v>395</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F269" t="s">
+        <v>383</v>
+      </c>
+      <c r="G269" t="s">
+        <v>383</v>
+      </c>
+      <c r="H269" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
         <v>396</v>
-      </c>
-      <c r="G270" t="s">
-        <v>216</v>
-      </c>
-      <c r="H270" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="B271" t="s">
-        <v>398</v>
-      </c>
-      <c r="C271" t="n">
-        <v>2.596</v>
-      </c>
-      <c r="D271" t="s">
-        <v>399</v>
-      </c>
-      <c r="E271" t="s">
-        <v>169</v>
-      </c>
-      <c r="F271" t="s">
-        <v>400</v>
-      </c>
-      <c r="G271" t="s">
-        <v>401</v>
-      </c>
-      <c r="H271" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="B272" t="s">
-        <v>402</v>
+        <v>85</v>
       </c>
       <c r="C272" t="n">
-        <v>2.839</v>
+        <v>3.5</v>
       </c>
       <c r="D272" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E272" t="s">
-        <v>404</v>
+        <v>50</v>
       </c>
       <c r="F272" t="s">
-        <v>405</v>
+        <v>53</v>
       </c>
       <c r="G272" t="s">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="H272" t="s">
-        <v>406</v>
+        <v>32</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="B273" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C273" t="n">
-        <v>3.027</v>
+        <v>3.85</v>
       </c>
       <c r="D273" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E273" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F273" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G273" t="s">
-        <v>411</v>
+        <v>32</v>
       </c>
       <c r="H273" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="B274" t="s">
-        <v>413</v>
-      </c>
-      <c r="C274" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="D274" t="s">
-        <v>414</v>
-      </c>
-      <c r="E274" t="s">
-        <v>415</v>
-      </c>
-      <c r="F274" t="s">
-        <v>416</v>
-      </c>
-      <c r="G274" t="s">
-        <v>417</v>
-      </c>
-      <c r="H274" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="B275" t="s">
-        <v>418</v>
-      </c>
-      <c r="C275" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="D275" t="s">
-        <v>419</v>
-      </c>
-      <c r="E275" t="s">
-        <v>420</v>
-      </c>
-      <c r="F275" t="s">
-        <v>421</v>
-      </c>
-      <c r="G275" t="s">
-        <v>32</v>
-      </c>
-      <c r="H275" t="s">
-        <v>32</v>
+      <c r="A275" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="B276" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C276" t="n">
-        <v>2.982</v>
+        <v>3.1245</v>
       </c>
       <c r="D276" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E276" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="F276" t="s">
-        <v>252</v>
+        <v>405</v>
       </c>
       <c r="G276" t="s">
-        <v>424</v>
+        <v>220</v>
       </c>
       <c r="H276" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="B277" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C277" t="n">
-        <v>3.55</v>
+        <v>2.596</v>
       </c>
       <c r="D277" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="E277" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="F277" t="s">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="G277" t="s">
-        <v>32</v>
+        <v>410</v>
       </c>
       <c r="H277" t="s">
-        <v>32</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="B278" t="s">
+        <v>411</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2.839</v>
+      </c>
+      <c r="D278" t="s">
+        <v>412</v>
+      </c>
+      <c r="E278" t="s">
+        <v>413</v>
+      </c>
+      <c r="F278" t="s">
+        <v>414</v>
+      </c>
+      <c r="G278" t="s">
+        <v>334</v>
+      </c>
+      <c r="H278" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" t="s">
-        <v>427</v>
+      <c r="B279" t="s">
+        <v>416</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="D279" t="s">
+        <v>417</v>
+      </c>
+      <c r="E279" t="s">
+        <v>418</v>
+      </c>
+      <c r="F279" t="s">
+        <v>419</v>
+      </c>
+      <c r="G279" t="s">
+        <v>420</v>
+      </c>
+      <c r="H279" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="B280" t="s">
+        <v>422</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="D280" t="s">
+        <v>423</v>
+      </c>
+      <c r="E280" t="s">
+        <v>424</v>
+      </c>
+      <c r="F280" t="s">
+        <v>425</v>
+      </c>
+      <c r="G280" t="s">
+        <v>426</v>
+      </c>
+      <c r="H280" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="B281" t="s">
+        <v>427</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="D281" t="s">
         <v>428</v>
       </c>
-      <c r="C280" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D280" t="s">
-        <v>222</v>
-      </c>
-      <c r="E280" t="s">
-        <v>223</v>
-      </c>
-      <c r="F280" t="s">
-        <v>32</v>
-      </c>
-      <c r="G280" t="s">
-        <v>32</v>
-      </c>
-      <c r="H280" t="s">
+      <c r="E281" t="s">
+        <v>429</v>
+      </c>
+      <c r="F281" t="s">
+        <v>430</v>
+      </c>
+      <c r="G281" t="s">
+        <v>32</v>
+      </c>
+      <c r="H281" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" t="s">
-        <v>429</v>
+      <c r="B282" t="s">
+        <v>398</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2.982</v>
+      </c>
+      <c r="D282" t="s">
+        <v>431</v>
+      </c>
+      <c r="E282" t="s">
+        <v>432</v>
+      </c>
+      <c r="F282" t="s">
+        <v>256</v>
+      </c>
+      <c r="G282" t="s">
+        <v>433</v>
+      </c>
+      <c r="H282" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="B283" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C283" t="n">
-        <v>2.917</v>
+        <v>3.55</v>
       </c>
       <c r="D283" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="E283" t="s">
-        <v>431</v>
+        <v>261</v>
       </c>
       <c r="F283" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="G283" t="s">
         <v>32</v>
       </c>
       <c r="H283" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="B286" t="s">
-        <v>433</v>
+        <v>374</v>
       </c>
       <c r="C286" t="n">
-        <v>2.55</v>
+        <v>3.475</v>
       </c>
       <c r="D286" t="s">
-        <v>257</v>
+        <v>436</v>
       </c>
       <c r="E286" t="s">
-        <v>212</v>
+        <v>437</v>
       </c>
       <c r="F286" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="G286" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="H286" t="s">
-        <v>45</v>
+        <v>440</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="B289" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C289" t="n">
-        <v>3.846</v>
+        <v>3.778</v>
       </c>
       <c r="D289" t="s">
-        <v>436</v>
+        <v>226</v>
       </c>
       <c r="E289" t="s">
-        <v>386</v>
+        <v>227</v>
       </c>
       <c r="F289" t="s">
         <v>32</v>
@@ -4793,80 +4838,80 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="B292" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="C292" t="n">
-        <v>3</v>
+        <v>2.917</v>
       </c>
       <c r="D292" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="E292" t="s">
-        <v>51</v>
+        <v>445</v>
       </c>
       <c r="F292" t="s">
-        <v>350</v>
+        <v>119</v>
       </c>
       <c r="G292" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="H292" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="B295" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="C295" t="n">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="D295" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="E295" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="F295" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="G295" t="s">
-        <v>32</v>
+        <v>400</v>
       </c>
       <c r="H295" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="B298" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="C298" t="n">
-        <v>3.875</v>
+        <v>3.1</v>
       </c>
       <c r="D298" t="s">
-        <v>441</v>
+        <v>216</v>
       </c>
       <c r="E298" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="F298" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="G298" t="s">
         <v>32</v>
@@ -4877,21 +4922,21 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="B301" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C301" t="n">
-        <v>3.714</v>
+        <v>3.846</v>
       </c>
       <c r="D301" t="s">
-        <v>222</v>
+        <v>451</v>
       </c>
       <c r="E301" t="s">
-        <v>223</v>
+        <v>395</v>
       </c>
       <c r="F301" t="s">
         <v>32</v>
@@ -4905,27 +4950,27 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="304" spans="1:8">
       <c r="B304" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="C304" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D304" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E304" t="s">
         <v>41</v>
       </c>
       <c r="F304" t="s">
-        <v>32</v>
+        <v>354</v>
       </c>
       <c r="G304" t="s">
-        <v>32</v>
+        <v>354</v>
       </c>
       <c r="H304" t="s">
         <v>32</v>
@@ -4933,21 +4978,21 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="B307" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="C307" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D307" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E307" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F307" t="s">
         <v>32</v>
@@ -4961,52 +5006,52 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="B310" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C310" t="n">
-        <v>3.143</v>
+        <v>3.875</v>
       </c>
       <c r="D310" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="E310" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="F310" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="G310" t="s">
         <v>32</v>
       </c>
       <c r="H310" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="B313" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="C313" t="n">
-        <v>3.571</v>
+        <v>3.714</v>
       </c>
       <c r="D313" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E313" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="F313" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="G313" t="s">
         <v>32</v>
@@ -5017,21 +5062,21 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="B316" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C316" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D316" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E316" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F316" t="s">
         <v>32</v>
@@ -5045,21 +5090,21 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="B319" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="C319" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D319" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E319" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F319" t="s">
         <v>32</v>
@@ -5073,21 +5118,21 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="B322" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="C322" t="n">
-        <v>4</v>
+        <v>3.143</v>
       </c>
       <c r="D322" t="s">
-        <v>67</v>
+        <v>363</v>
       </c>
       <c r="E322" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="F322" t="s">
         <v>32</v>
@@ -5096,34 +5141,146 @@
         <v>32</v>
       </c>
       <c r="H322" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="A324" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="325" spans="1:8">
       <c r="B325" t="s">
-        <v>455</v>
+        <v>394</v>
       </c>
       <c r="C325" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D325" t="s">
+        <v>226</v>
+      </c>
+      <c r="E325" t="s">
+        <v>256</v>
+      </c>
+      <c r="F325" t="s">
+        <v>256</v>
+      </c>
+      <c r="G325" t="s">
+        <v>32</v>
+      </c>
+      <c r="H325" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="B328" t="s">
+        <v>394</v>
+      </c>
+      <c r="C328" t="n">
         <v>4</v>
       </c>
-      <c r="D325" t="s">
-        <v>67</v>
-      </c>
-      <c r="E325" t="s">
-        <v>32</v>
-      </c>
-      <c r="F325" t="s">
-        <v>32</v>
-      </c>
-      <c r="G325" t="s">
-        <v>32</v>
-      </c>
-      <c r="H325" t="s">
+      <c r="D328" t="s">
+        <v>71</v>
+      </c>
+      <c r="E328" t="s">
+        <v>32</v>
+      </c>
+      <c r="F328" t="s">
+        <v>32</v>
+      </c>
+      <c r="G328" t="s">
+        <v>32</v>
+      </c>
+      <c r="H328" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="B331" t="s">
+        <v>467</v>
+      </c>
+      <c r="C331" t="n">
+        <v>4</v>
+      </c>
+      <c r="D331" t="s">
+        <v>71</v>
+      </c>
+      <c r="E331" t="s">
+        <v>32</v>
+      </c>
+      <c r="F331" t="s">
+        <v>32</v>
+      </c>
+      <c r="G331" t="s">
+        <v>32</v>
+      </c>
+      <c r="H331" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="B334" t="s">
+        <v>444</v>
+      </c>
+      <c r="C334" t="n">
+        <v>4</v>
+      </c>
+      <c r="D334" t="s">
+        <v>71</v>
+      </c>
+      <c r="E334" t="s">
+        <v>32</v>
+      </c>
+      <c r="F334" t="s">
+        <v>32</v>
+      </c>
+      <c r="G334" t="s">
+        <v>32</v>
+      </c>
+      <c r="H334" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="B337" t="s">
+        <v>470</v>
+      </c>
+      <c r="C337" t="n">
+        <v>4</v>
+      </c>
+      <c r="D337" t="s">
+        <v>71</v>
+      </c>
+      <c r="E337" t="s">
+        <v>32</v>
+      </c>
+      <c r="F337" t="s">
+        <v>32</v>
+      </c>
+      <c r="G337" t="s">
+        <v>32</v>
+      </c>
+      <c r="H337" t="s">
         <v>32</v>
       </c>
     </row>
